--- a/server/logic/Data/FG and RM List.xlsx
+++ b/server/logic/Data/FG and RM List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa4a56d6e381aebe/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\Logsync\server\logic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A918FD84-F9E1-47C5-8ADE-3B30117FCED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{374B42AC-A113-4FF1-A697-2F5124CADB70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB8C015-CADB-4EAC-9203-4BB3D6893D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{83958823-9511-4676-9C8D-DBC1CA199FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83958823-9511-4676-9C8D-DBC1CA199FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="FG_Battery" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="203">
   <si>
     <t>Finished Good</t>
   </si>
@@ -632,6 +632,15 @@
   </si>
   <si>
     <t>liter</t>
+  </si>
+  <si>
+    <t>Production Time (hours)</t>
+  </si>
+  <si>
+    <t>Inspection Time (hours)</t>
+  </si>
+  <si>
+    <t>Total Time</t>
   </si>
 </sst>
 </file>
@@ -902,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -927,10 +936,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91620614-6CB9-46E8-9486-D1A8B4D80FF0}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,9 +1262,13 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>91</v>
       </c>
@@ -1268,8 +1278,17 @@
       <c r="C1" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>801236</v>
       </c>
@@ -1279,8 +1298,18 @@
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>D2+E2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>807912</v>
       </c>
@@ -1290,8 +1319,18 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="0">D3+E3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>803490</v>
       </c>
@@ -1301,8 +1340,18 @@
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>803761</v>
       </c>
@@ -1312,8 +1361,18 @@
       <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>807543</v>
       </c>
@@ -1323,8 +1382,18 @@
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>805198</v>
       </c>
@@ -1334,8 +1403,18 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>805234</v>
       </c>
@@ -1345,8 +1424,18 @@
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>806754</v>
       </c>
@@ -1356,8 +1445,18 @@
       <c r="C9" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>804289</v>
       </c>
@@ -1367,8 +1466,18 @@
       <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>809365</v>
       </c>
@@ -1378,8 +1487,18 @@
       <c r="C11" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>806123</v>
       </c>
@@ -1389,8 +1508,18 @@
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>802985</v>
       </c>
@@ -1400,8 +1529,18 @@
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>808765</v>
       </c>
@@ -1411,8 +1550,18 @@
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>801947</v>
       </c>
@@ -1422,8 +1571,18 @@
       <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>802563</v>
       </c>
@@ -1433,8 +1592,18 @@
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>801348</v>
       </c>
@@ -1444,8 +1613,18 @@
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>809874</v>
       </c>
@@ -1455,8 +1634,18 @@
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>808321</v>
       </c>
@@ -1466,8 +1655,18 @@
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>804567</v>
       </c>
@@ -1476,6 +1675,16 @@
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86708C84-7320-4D99-9346-77E7FFBDE77E}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -4467,218 +4676,218 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2">
         <v>509234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3">
         <v>507423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4">
         <v>508746</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5">
         <v>504965</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6">
         <v>506912</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7">
         <v>507821</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8">
         <v>504367</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9">
         <v>501467</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10">
         <v>504687</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11">
         <v>503412</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12">
         <v>508765</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13">
         <v>506731</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14">
         <v>503854</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15">
         <v>506759</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16">
         <v>507843</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17">
         <v>503812</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18">
         <v>509127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19">
         <v>509638</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20">
         <v>503421</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21">
         <v>508721</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22">
         <v>502189</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23">
         <v>501953</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24">
         <v>502134</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25">
         <v>501298</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26">
         <v>503129</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27">
         <v>505921</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="5">
         <v>504782</v>
       </c>
     </row>
